--- a/biology/Médecine/Institut_Allan_Memorial/Institut_Allan_Memorial.xlsx
+++ b/biology/Médecine/Institut_Allan_Memorial/Institut_Allan_Memorial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’institut Allan Memorial (anglais : « Allan Memorial Institute » (AMI) ou parfois surnommé « The Allan ») est une institution fondée en 1943[1] par l’hôpital Royal Victoria et qui abrite le département de psychiatrie de l’hôpital et du centre universitaire de santé McGill[2].
-L’institut couvre de nos jours un complexe de quatre édifices situés sur l’ancien domaine de Hugh Allan. Il comprend notamment le pavillon principal P (Ravenscrag), l’ancienne maison du gardien, le pavillon de recherche et de formation en psychiatrie Irving Ludmer et le pavillon V (l’ancienne écurie) de la division d’épidémiologie clinique[3].
+L’institut Allan Memorial (anglais : « Allan Memorial Institute » (AMI) ou parfois surnommé « The Allan ») est une institution fondée en 1943 par l’hôpital Royal Victoria et qui abrite le département de psychiatrie de l’hôpital et du centre universitaire de santé McGill.
+L’institut couvre de nos jours un complexe de quatre édifices situés sur l’ancien domaine de Hugh Allan. Il comprend notamment le pavillon principal P (Ravenscrag), l’ancienne maison du gardien, le pavillon de recherche et de formation en psychiatrie Irving Ludmer et le pavillon V (l’ancienne écurie) de la division d’épidémiologie clinique.
 L’établissement est notamment connu pour son rôle dans le Projet MK-Ultra de la CIA, qui fut dirigé par le Docteur Donald Ewen Cameron.
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le complexe de l’institut Allan Memorial est situé sur le versant sud-est du mont Royal, en haut de la rue McTavish, dans l’ancien quartier du Mille carré doré[4]. On y accède depuis la grille monumentale ou depuis l’ancienne entrée des calèches[5] plus à l’ouest, toutes les deux donnant sur l’avenue des Pins Ouest.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le complexe de l’institut Allan Memorial est situé sur le versant sud-est du mont Royal, en haut de la rue McTavish, dans l’ancien quartier du Mille carré doré. On y accède depuis la grille monumentale ou depuis l’ancienne entrée des calèches plus à l’ouest, toutes les deux donnant sur l’avenue des Pins Ouest.
 Plus précisément, les adresses des différents édifices de l’institut sont les suivantes :
 Maison du gardien : 835 avenue des Pins ouest, Montréal, Québec, Canada, H3A 1A1.
 Pavillon V (Division d’épidémiologie clinique) : 687 avenue des Pins ouest, Montréal.
@@ -551,10 +565,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1940, l’hôpital Royal Victoria reçut en don de la part de Sir Hugh Montagu Allan l’élégante maison Ravenscrag ainsi que tout le domaine qui l’entoure[1],[6]. Pendant près de trois ans, l’hôpital fut indécis quant à la destination éventuelle à accorder à l’ancienne maison bourgeoise. Ce n’est qu’en 1943 que l’hôpital prit la décision de la transformer en un département consacré à la psychiatrie, le premier du genre au Canada[1].
-L'institut ouvrit ses portes le 12 juillet 1944[7]. Il possédait alors une cinquantaine de chambres, quatre laboratoires et bureaux pour l'administration et le personnel[8]. Le premier directeur de l'institut fut le Dr Donald Ewen Cameron, jusqu'alors professeur de psychiatrie à l'université McGill[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1940, l’hôpital Royal Victoria reçut en don de la part de Sir Hugh Montagu Allan l’élégante maison Ravenscrag ainsi que tout le domaine qui l’entoure,. Pendant près de trois ans, l’hôpital fut indécis quant à la destination éventuelle à accorder à l’ancienne maison bourgeoise. Ce n’est qu’en 1943 que l’hôpital prit la décision de la transformer en un département consacré à la psychiatrie, le premier du genre au Canada.
+L'institut ouvrit ses portes le 12 juillet 1944. Il possédait alors une cinquantaine de chambres, quatre laboratoires et bureaux pour l'administration et le personnel. Le premier directeur de l'institut fut le Dr Donald Ewen Cameron, jusqu'alors professeur de psychiatrie à l'université McGill.
 </t>
         </is>
       </c>
